--- a/data/trans_orig/P14C14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D5756BA-2338-45EB-B851-3405353CFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB766EED-E508-4D98-BE52-09606F149D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD9BA980-500C-4F18-9478-EC7B71AC539B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{487982A0-B518-48C0-8062-62026C7EF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="115">
   <si>
     <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
   </si>
@@ -110,7 +110,7 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>16,54%</t>
+    <t>15,42%</t>
   </si>
   <si>
     <t>33,96%</t>
@@ -122,7 +122,7 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>83,46%</t>
+    <t>84,58%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -137,19 +137,19 @@
     <t>66,45%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -164,19 +164,19 @@
     <t>75,54%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -185,31 +185,31 @@
     <t>22,01%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>12,93%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>13,21%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -218,37 +218,37 @@
     <t>79,51%</t>
   </si>
   <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -266,19 +266,19 @@
     <t>79,2%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>40,7%</t>
@@ -287,19 +287,19 @@
     <t>17,32%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -308,55 +308,58 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>17,81%</t>
+    <t>17,75%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>16,09%</t>
+    <t>15,8%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>60,75%</t>
+    <t>60,03%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>69,97%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>39,25%</t>
+    <t>39,97%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,71%</t>
+    <t>13,92%</t>
   </si>
   <si>
     <t>28,19%</t>
@@ -374,7 +377,7 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F656F-DE04-4CB1-B3F9-C134F2813A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A89C3A-2D33-4113-AA67-08BF9A9C0B05}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2169,7 +2172,7 @@
         <v>99</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2187,13 @@
         <v>2100</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -2199,13 +2202,13 @@
         <v>26415</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -2214,13 +2217,13 @@
         <v>28515</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2244,7 @@
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2250,13 +2253,13 @@
         <v>2036</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2265,13 +2268,13 @@
         <v>2036</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,7 +2330,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C14-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB766EED-E508-4D98-BE52-09606F149D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{001B544D-B3B4-4782-A1A2-4DDF671C5F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{487982A0-B518-48C0-8062-62026C7EF74B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14653704-7FAE-4C28-8F00-AA96B6B563A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="115">
   <si>
-    <t>Población según el tiempo de diagnóstico del fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población según el tiempo de diagnóstico del fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -110,7 +110,7 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>15,42%</t>
+    <t>16,75%</t>
   </si>
   <si>
     <t>33,96%</t>
@@ -122,7 +122,7 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>84,58%</t>
+    <t>83,25%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -137,19 +137,19 @@
     <t>66,45%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -164,19 +164,19 @@
     <t>75,54%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -185,31 +185,31 @@
     <t>22,01%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>12,32%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>13,21%</t>
+    <t>10,43%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -218,37 +218,37 @@
     <t>79,51%</t>
   </si>
   <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -266,19 +266,19 @@
     <t>79,2%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>40,7%</t>
@@ -287,19 +287,19 @@
     <t>17,32%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -308,61 +308,61 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>17,75%</t>
+    <t>18,88%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>15,8%</t>
+    <t>15,12%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>60,03%</t>
+    <t>56,04%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>39,97%</t>
+    <t>43,96%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -371,13 +371,13 @@
     <t>1,63%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A89C3A-2D33-4113-AA67-08BF9A9C0B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A5018-A81E-457E-8545-F1D5BAE5B041}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
